--- a/data/WEF_COVID_19_Risks_Outlook.xlsx
+++ b/data/WEF_COVID_19_Risks_Outlook.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernay/Desktop/DataViz/Repositories/Interactive-Data-Vis-Fall2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9314C3-FCC8-4048-8C2D-DE44C4FF3081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425D9271-3423-894F-913E-AD94F6581D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="2100" windowWidth="35320" windowHeight="17480" xr2:uid="{A79B5F70-9CA4-F84F-A3BA-228B92A330B3}"/>
+    <workbookView xWindow="30600" yWindow="2100" windowWidth="35320" windowHeight="17480" activeTab="1" xr2:uid="{A79B5F70-9CA4-F84F-A3BA-228B92A330B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivoted" sheetId="5" r:id="rId1"/>
     <sheet name="Normalized" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Normalized!$A$1:$E$94</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -634,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF15680-E605-F14F-AD23-61DC923BEABA}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -1325,10 +1328,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA5439D-12E3-D94B-95E8-67D10491FD49}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1356,7 +1360,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1392,7 +1396,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -1410,7 +1414,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -1464,7 +1468,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1482,7 +1486,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1500,7 +1504,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -1536,7 +1540,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1554,7 +1558,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1572,7 +1576,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1590,7 +1594,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -1608,7 +1612,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -1626,7 +1630,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -1662,7 +1666,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -1698,7 +1702,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -1716,7 +1720,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
@@ -1734,7 +1738,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -1752,7 +1756,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -1770,7 +1774,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -1788,7 +1792,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -1806,7 +1810,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -1824,7 +1828,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1842,7 +1846,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
@@ -1878,7 +1882,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -1896,7 +1900,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -1914,7 +1918,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
@@ -1932,7 +1936,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
@@ -1950,7 +1954,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -1968,7 +1972,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
@@ -1986,7 +1990,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -2004,7 +2008,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -2022,7 +2026,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>36</v>
       </c>
@@ -2076,7 +2080,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -2094,7 +2098,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>36</v>
       </c>
@@ -2112,7 +2116,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>36</v>
       </c>
@@ -2130,7 +2134,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>36</v>
       </c>
@@ -2148,7 +2152,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>36</v>
       </c>
@@ -2166,7 +2170,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>36</v>
       </c>
@@ -2184,7 +2188,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>36</v>
       </c>
@@ -2202,7 +2206,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>36</v>
       </c>
@@ -2220,7 +2224,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>36</v>
       </c>
@@ -2238,7 +2242,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>36</v>
       </c>
@@ -2256,7 +2260,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>36</v>
       </c>
@@ -2274,7 +2278,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>36</v>
       </c>
@@ -2292,7 +2296,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>36</v>
       </c>
@@ -2328,7 +2332,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>36</v>
       </c>
@@ -2346,7 +2350,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>36</v>
       </c>
@@ -2382,7 +2386,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>36</v>
       </c>
@@ -2400,7 +2404,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>36</v>
       </c>
@@ -2418,7 +2422,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>36</v>
       </c>
@@ -2436,7 +2440,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>36</v>
       </c>
@@ -2454,7 +2458,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>36</v>
       </c>
@@ -2472,7 +2476,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -2490,7 +2494,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -2508,7 +2512,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -2526,7 +2530,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -2544,7 +2548,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>37</v>
       </c>
@@ -2562,7 +2566,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -2580,7 +2584,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>37</v>
       </c>
@@ -2598,7 +2602,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>37</v>
       </c>
@@ -2616,7 +2620,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>37</v>
       </c>
@@ -2634,7 +2638,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>37</v>
       </c>
@@ -2652,7 +2656,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>37</v>
       </c>
@@ -2670,7 +2674,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>37</v>
       </c>
@@ -2688,7 +2692,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -2706,7 +2710,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -2724,7 +2728,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>37</v>
       </c>
@@ -2742,7 +2746,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>37</v>
       </c>
@@ -2760,7 +2764,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>37</v>
       </c>
@@ -2778,7 +2782,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>37</v>
       </c>
@@ -2796,7 +2800,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>37</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -2850,7 +2854,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -2868,7 +2872,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>37</v>
       </c>
@@ -2886,7 +2890,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>37</v>
       </c>
@@ -2904,7 +2908,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>37</v>
       </c>
@@ -2922,7 +2926,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>37</v>
       </c>
@@ -2940,7 +2944,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>37</v>
       </c>
@@ -2958,7 +2962,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>37</v>
       </c>
@@ -2994,7 +2998,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>37</v>
       </c>
@@ -3012,7 +3016,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>37</v>
       </c>
@@ -3031,6 +3035,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E94" xr:uid="{6F699A09-FC62-F044-B6DD-38888CEEE27D}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Environmental"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/WEF_COVID_19_Risks_Outlook.xlsx
+++ b/data/WEF_COVID_19_Risks_Outlook.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernay/Desktop/DataViz/Repositories/Interactive-Data-Vis-Fall2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425D9271-3423-894F-913E-AD94F6581D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6C8DBC-076E-B747-94B3-81A8A18ABD8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="2100" windowWidth="35320" windowHeight="17480" activeTab="1" xr2:uid="{A79B5F70-9CA4-F84F-A3BA-228B92A330B3}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{A79B5F70-9CA4-F84F-A3BA-228B92A330B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivoted" sheetId="5" r:id="rId1"/>
-    <sheet name="Normalized" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Normalized" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Normalized!$A$1:$E$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Normalized!$A$1:$F$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="106">
   <si>
     <t xml:space="preserve">Prolonged recession of the global economy </t>
   </si>
@@ -259,6 +260,102 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Risk_Summary</t>
+  </si>
+  <si>
+    <t>Recession</t>
+  </si>
+  <si>
+    <t>Bankruptcies</t>
+  </si>
+  <si>
+    <t>Failure of Industries</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t>Limited movement</t>
+  </si>
+  <si>
+    <t>Economic downturn</t>
+  </si>
+  <si>
+    <t>Supply chain</t>
+  </si>
+  <si>
+    <t>Economic collapse of emerging markets</t>
+  </si>
+  <si>
+    <t>Cyberattacks</t>
+  </si>
+  <si>
+    <t>Another outbreak</t>
+  </si>
+  <si>
+    <t>Unemployment due to automation</t>
+  </si>
+  <si>
+    <t>Geopolitical exploitation</t>
+  </si>
+  <si>
+    <t>Governmental intervention</t>
+  </si>
+  <si>
+    <t>Mental health</t>
+  </si>
+  <si>
+    <t>Inequality</t>
+  </si>
+  <si>
+    <t>Global inflation</t>
+  </si>
+  <si>
+    <t>Humaniterian crises</t>
+  </si>
+  <si>
+    <t>Distrust of government</t>
+  </si>
+  <si>
+    <t>Ignorance of climate investments</t>
+  </si>
+  <si>
+    <t>Slowdown of foreing investment</t>
+  </si>
+  <si>
+    <t>Pension fund devaluation</t>
+  </si>
+  <si>
+    <t>Nationalization</t>
+  </si>
+  <si>
+    <t>Weakened social security systems</t>
+  </si>
+  <si>
+    <t>Healthcare ineffectiveness</t>
+  </si>
+  <si>
+    <t>Regulation of technologies</t>
+  </si>
+  <si>
+    <t>Education support</t>
+  </si>
+  <si>
+    <t>Global crisis response</t>
+  </si>
+  <si>
+    <t>IT infrastructure</t>
+  </si>
+  <si>
+    <t>Decarbonization efforts</t>
+  </si>
+  <si>
+    <t>Anti-business sentiment</t>
+  </si>
+  <si>
+    <t>Military conflicts</t>
   </si>
 </sst>
 </file>
@@ -637,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF15680-E605-F14F-AD23-61DC923BEABA}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1327,23 +1424,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A89E8B8-3E28-CE4A-A57B-3BEBB37FC513}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA5439D-12E3-D94B-95E8-67D10491FD49}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="49.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1351,1697 +1460,2035 @@
         <v>42</v>
       </c>
       <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4">
         <v>0.68599999999999994</v>
       </c>
-      <c r="E2" s="3" t="str">
-        <f>IF(D2&gt;0.4,"High",IF(D2&gt;0.2,"Medium","Low"))</f>
+      <c r="F2" s="3" t="str">
+        <f>IF(E2&gt;0.4,"High",IF(E2&gt;0.2,"Medium","Low"))</f>
         <v>High</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4">
         <v>0.56799999999999995</v>
       </c>
-      <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E66" si="0">IF(D3&gt;0.4,"High",IF(D3&gt;0.2,"Medium","Low"))</f>
+      <c r="F3" s="3" t="str">
+        <f t="shared" ref="F3:F66" si="0">IF(E3&gt;0.4,"High",IF(E3&gt;0.2,"Medium","Low"))</f>
         <v>High</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4">
         <v>0.55899999999999994</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="F4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>High</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4">
         <v>0.49299999999999999</v>
       </c>
-      <c r="E5" s="3" t="str">
+      <c r="F5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>High</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>0.48700000000000004</v>
       </c>
-      <c r="E6" s="3" t="str">
+      <c r="F6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>High</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4">
         <v>0.45799999999999996</v>
       </c>
-      <c r="E7" s="3" t="str">
+      <c r="F7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>High</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4">
         <v>0.42100000000000004</v>
       </c>
-      <c r="E8" s="3" t="str">
+      <c r="F8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>High</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4">
         <v>0.38</v>
       </c>
-      <c r="E9" s="3" t="str">
+      <c r="F9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>0.37799999999999995</v>
       </c>
-      <c r="E10" s="3" t="str">
+      <c r="F10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4">
         <v>0.308</v>
       </c>
-      <c r="E11" s="3" t="str">
+      <c r="F11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>0.248</v>
       </c>
-      <c r="E12" s="3" t="str">
+      <c r="F12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>0.24199999999999999</v>
       </c>
-      <c r="E13" s="3" t="str">
+      <c r="F13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4">
         <v>0.23300000000000001</v>
       </c>
-      <c r="E14" s="3" t="str">
+      <c r="F14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="4">
         <v>0.21899999999999997</v>
       </c>
-      <c r="E15" s="3" t="str">
+      <c r="F15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="4">
         <v>0.21299999999999999</v>
       </c>
-      <c r="E16" s="3" t="str">
+      <c r="F16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="4">
         <v>0.20199999999999999</v>
       </c>
-      <c r="E17" s="3" t="str">
+      <c r="F17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>0.19600000000000001</v>
       </c>
-      <c r="E18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="4">
         <v>0.184</v>
       </c>
-      <c r="E19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>0.182</v>
       </c>
-      <c r="E20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="4">
         <v>0.17899999999999999</v>
       </c>
-      <c r="E21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="4">
         <v>0.17600000000000002</v>
       </c>
-      <c r="E22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>0.17</v>
       </c>
-      <c r="E23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="4">
         <v>0.16399999999999998</v>
       </c>
-      <c r="E24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="4">
         <v>0.14699999999999999</v>
       </c>
-      <c r="E25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <v>0.13800000000000001</v>
       </c>
-      <c r="E26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="4">
         <v>0.121</v>
       </c>
-      <c r="E27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="E28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="E29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="E32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="C33" t="str">
+        <f>VLOOKUP(B33,$B$2:$C$32,2,FALSE)</f>
+        <v>Recession</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="4">
         <v>0.58499999999999996</v>
       </c>
-      <c r="E33" s="3" t="str">
+      <c r="F33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>High</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:C94" si="1">VLOOKUP(B34,$B$2:$C$32,2,FALSE)</f>
+        <v>Unemployment</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="4">
         <v>0.43799999999999994</v>
       </c>
-      <c r="E34" s="3" t="str">
+      <c r="F34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>High</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>Another outbreak</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="4">
         <v>0.40100000000000002</v>
       </c>
-      <c r="E35" s="3" t="str">
+      <c r="F35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>High</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>Economic downturn</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="4">
         <v>0.39200000000000002</v>
       </c>
-      <c r="E36" s="3" t="str">
+      <c r="F36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="4">
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>Failure of Industries</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="4">
         <v>0.35399999999999998</v>
       </c>
-      <c r="E37" s="3" t="str">
+      <c r="F37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="4">
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>Bankruptcies</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="4">
         <v>0.35200000000000004</v>
       </c>
-      <c r="E38" s="3" t="str">
+      <c r="F38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>Limited movement</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="4">
         <v>0.34</v>
       </c>
-      <c r="E39" s="3" t="str">
+      <c r="F39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="4">
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>Economic collapse of emerging markets</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="4">
         <v>0.33700000000000002</v>
       </c>
-      <c r="E40" s="3" t="str">
+      <c r="F40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="4">
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>Supply chain</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="4">
         <v>0.33700000000000002</v>
       </c>
-      <c r="E41" s="3" t="str">
+      <c r="F41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>Geopolitical exploitation</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E42" s="4">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E42" s="3" t="str">
+      <c r="F42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="4">
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>Weakened social security systems</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="4">
         <v>0.27699999999999997</v>
       </c>
-      <c r="E43" s="3" t="str">
+      <c r="F43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>Humaniterian crises</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>0.27399999999999997</v>
       </c>
-      <c r="E44" s="3" t="str">
+      <c r="F44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>Cyberattacks</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>0.254</v>
       </c>
-      <c r="E45" s="3" t="str">
+      <c r="F45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="4">
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>Inequality</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="4">
         <v>0.251</v>
       </c>
-      <c r="E46" s="3" t="str">
+      <c r="F46" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="4">
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>Global inflation</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="4">
         <v>0.251</v>
       </c>
-      <c r="E47" s="3" t="str">
+      <c r="F47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="4">
+      <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v>Governmental intervention</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="4">
         <v>0.248</v>
       </c>
-      <c r="E48" s="3" t="str">
+      <c r="F48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="4">
+      <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v>Healthcare ineffectiveness</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="4">
         <v>0.23899999999999999</v>
       </c>
-      <c r="E49" s="3" t="str">
+      <c r="F49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" t="str">
+        <f t="shared" si="1"/>
+        <v>Unemployment due to automation</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <v>0.187</v>
       </c>
-      <c r="E50" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" t="str">
+        <f t="shared" si="1"/>
+        <v>Nationalization</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>0.17600000000000002</v>
       </c>
-      <c r="E51" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="4">
+      <c r="C52" t="str">
+        <f t="shared" si="1"/>
+        <v>Mental health</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="4">
         <v>0.17</v>
       </c>
-      <c r="E52" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="4">
+      <c r="C53" t="str">
+        <f t="shared" si="1"/>
+        <v>Distrust of government</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="4">
         <v>0.17</v>
       </c>
-      <c r="E53" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="4">
+      <c r="C54" t="str">
+        <f t="shared" si="1"/>
+        <v>Slowdown of foreing investment</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="4">
         <v>0.16399999999999998</v>
       </c>
-      <c r="E54" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" t="str">
+        <f t="shared" si="1"/>
+        <v>Ignorance of climate investments</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="4">
+      <c r="E55" s="4">
         <v>0.161</v>
       </c>
-      <c r="E55" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" t="str">
+        <f t="shared" si="1"/>
+        <v>Global crisis response</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="4">
+      <c r="E56" s="4">
         <v>0.15</v>
       </c>
-      <c r="E56" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="4">
+      <c r="C57" t="str">
+        <f t="shared" si="1"/>
+        <v>Pension fund devaluation</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="4">
         <v>0.13</v>
       </c>
-      <c r="E57" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" t="str">
+        <f t="shared" si="1"/>
+        <v>Decarbonization efforts</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="4">
+      <c r="E58" s="4">
         <v>0.11199999999999999</v>
       </c>
-      <c r="E58" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="4">
+      <c r="C59" t="str">
+        <f t="shared" si="1"/>
+        <v>Education support</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="4">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="E59" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" t="str">
+        <f t="shared" si="1"/>
+        <v>IT infrastructure</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="4">
+      <c r="E60" s="4">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="E60" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" t="str">
+        <f t="shared" si="1"/>
+        <v>Military conflicts</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="4">
+      <c r="E61" s="4">
         <v>7.2000000000000008E-2</v>
       </c>
-      <c r="E61" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" t="str">
+        <f t="shared" si="1"/>
+        <v>Regulation of technologies</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="4">
+      <c r="E62" s="4">
         <v>6.3E-2</v>
       </c>
-      <c r="E62" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D63" s="4">
+      <c r="C63" t="str">
+        <f t="shared" si="1"/>
+        <v>Anti-business sentiment</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E63" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>37</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" s="2">
+      <c r="C64" t="str">
+        <f t="shared" si="1"/>
+        <v>Recession</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="2">
         <v>0.66299999999999992</v>
       </c>
-      <c r="E64" s="3" t="str">
+      <c r="F64" s="3" t="str">
         <f t="shared" si="0"/>
         <v>High</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>37</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="C65" t="str">
+        <f t="shared" si="1"/>
+        <v>Bankruptcies</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="2">
         <v>0.52700000000000002</v>
       </c>
-      <c r="E65" s="3" t="str">
+      <c r="F65" s="3" t="str">
         <f t="shared" si="0"/>
         <v>High</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>37</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" t="str">
+        <f t="shared" si="1"/>
+        <v>Cyberattacks</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D66" s="2">
+      <c r="E66" s="2">
         <v>0.501</v>
       </c>
-      <c r="E66" s="3" t="str">
+      <c r="F66" s="3" t="str">
         <f t="shared" si="0"/>
         <v>High</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>37</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="C67" t="str">
+        <f t="shared" si="1"/>
+        <v>Failure of Industries</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="2">
         <v>0.501</v>
       </c>
-      <c r="E67" s="3" t="str">
-        <f t="shared" ref="E67:E94" si="1">IF(D67&gt;0.4,"High",IF(D67&gt;0.2,"Medium","Low"))</f>
+      <c r="F67" s="3" t="str">
+        <f t="shared" ref="F67:F94" si="2">IF(E67&gt;0.4,"High",IF(E67&gt;0.2,"Medium","Low"))</f>
         <v>High</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>37</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" s="2">
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>Supply chain</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="2">
         <v>0.48399999999999999</v>
       </c>
-      <c r="E68" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="F68" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>High</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>37</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>Limited movement</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="2">
+      <c r="E69" s="2">
         <v>0.42899999999999999</v>
       </c>
-      <c r="E69" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="F69" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>High</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>37</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D70" s="2">
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>Another outbreak</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="2">
         <v>0.35399999999999998</v>
       </c>
-      <c r="E70" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="F70" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>37</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="2">
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>Economic collapse of emerging markets</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="2">
         <v>0.34600000000000003</v>
       </c>
-      <c r="E71" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="F71" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>37</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="2">
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>Economic downturn</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="2">
         <v>0.33399999999999996</v>
       </c>
-      <c r="E72" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="F72" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>37</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D73" s="2">
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>Global inflation</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="2">
         <v>0.32600000000000001</v>
       </c>
-      <c r="E73" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="F73" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>37</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>IT infrastructure</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="2">
+      <c r="E74" s="2">
         <v>0.29100000000000004</v>
       </c>
-      <c r="E74" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="F74" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>37</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" s="2">
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>Unemployment</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="2">
         <v>0.23899999999999999</v>
       </c>
-      <c r="E75" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="F75" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>37</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="2">
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>Slowdown of foreing investment</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="2">
         <v>0.23899999999999999</v>
       </c>
-      <c r="E76" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="F76" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>37</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D77" s="2">
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>Mental health</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="2">
         <v>0.193</v>
       </c>
-      <c r="E77" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>37</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D78" s="2">
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>Pension fund devaluation</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="2">
         <v>0.17600000000000002</v>
       </c>
-      <c r="E78" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>37</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" s="2">
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>Anti-business sentiment</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="2">
         <v>0.17300000000000001</v>
       </c>
-      <c r="E79" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>37</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>Nationalization</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D80" s="2">
+      <c r="E80" s="2">
         <v>0.17</v>
       </c>
-      <c r="E80" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F80" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>37</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>Unemployment due to automation</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D81" s="2">
+      <c r="E81" s="2">
         <v>0.16399999999999998</v>
       </c>
-      <c r="E81" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F81" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>37</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D82" s="2">
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>Governmental intervention</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="2">
         <v>0.14699999999999999</v>
       </c>
-      <c r="E82" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F82" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>37</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D83" s="2">
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>Healthcare ineffectiveness</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" s="2">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E83" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>37</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>Ignorance of climate investments</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D84" s="2">
+      <c r="E84" s="2">
         <v>0.115</v>
       </c>
-      <c r="E84" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F84" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>37</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" s="2">
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>Weakened social security systems</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="2">
         <v>0.107</v>
       </c>
-      <c r="E85" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F85" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>37</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>Global crisis response</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D86" s="2">
+      <c r="E86" s="2">
         <v>0.10400000000000001</v>
       </c>
-      <c r="E86" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F86" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>37</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>Geopolitical exploitation</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="2">
+      <c r="E87" s="2">
         <v>0.10400000000000001</v>
       </c>
-      <c r="E87" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F87" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>37</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D88" s="2">
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>Education support</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" s="2">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="E88" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F88" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>37</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>Regulation of technologies</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D89" s="2">
+      <c r="E89" s="2">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E89" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F89" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>37</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D90" s="2">
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>Inequality</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="2">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="E90" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F90" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>37</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D91" s="2">
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>Distrust of government</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" s="2">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="E91" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>37</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>Decarbonization efforts</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D92" s="2">
+      <c r="E92" s="2">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="E92" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F92" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>37</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>Humaniterian crises</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="2">
+      <c r="E93" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E93" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Low</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F93" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>37</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>Military conflicts</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="2">
+      <c r="E94" s="2">
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="E94" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="F94" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>Low</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E94" xr:uid="{6F699A09-FC62-F044-B6DD-38888CEEE27D}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Environmental"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F94" xr:uid="{6F699A09-FC62-F044-B6DD-38888CEEE27D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>